--- a/biology/Médecine/1465_en_santé_et_médecine/1465_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1465_en_santé_et_médecine/1465_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1465_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1465_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1465 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1465_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1465_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Janvier : le roi Louis XI ordonne que chaque barbier, médecin ou chirurgien « ait chez soi, en manière de codex, le calendrier de l'année », principal instrument de l'astrologie médicale[1].
-Par la même ordonnance, le roi Louis XI redonne aux barbiers l'autorisation de pratiquer les soins dentaires, qui leur avait été refusée à la demande des chirurgiens[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Janvier : le roi Louis XI ordonne que chaque barbier, médecin ou chirurgien « ait chez soi, en manière de codex, le calendrier de l'année », principal instrument de l'astrologie médicale.
+Par la même ordonnance, le roi Louis XI redonne aux barbiers l'autorisation de pratiquer les soins dentaires, qui leur avait été refusée à la demande des chirurgiens.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1465_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1465_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le médecin et chirurgien ottoman Serafeddin Sabuncuoglu (1385-1468) compose son traité de chirurgie, le Cerraḥîyet-i İlḫânîye (« Chirurgie impériale »), « dernière grande encyclopédie médicale du monde islamique[3] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le médecin et chirurgien ottoman Serafeddin Sabuncuoglu (1385-1468) compose son traité de chirurgie, le Cerraḥîyet-i İlḫânîye (« Chirurgie impériale »), « dernière grande encyclopédie médicale du monde islamique ».</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1465_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1465_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,9 +588,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1451-1465 : fl. Jean Colleman, médecin et astrologue des rois Charles VII et Louis XI[4].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1451-1465 : fl. Jean Colleman, médecin et astrologue des rois Charles VII et Louis XI.</t>
         </is>
       </c>
     </row>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1465_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1465_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,9 +620,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Jacques Muyssart (mort avant octobre 1531), médecin de l'hospice Comtesse et de la ville de Lille[5],[6],[7].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jacques Muyssart (mort avant octobre 1531), médecin de l'hospice Comtesse et de la ville de Lille.</t>
         </is>
       </c>
     </row>
@@ -614,7 +634,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1465_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1465_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -632,12 +652,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Gaëtan de Tiène (né en 1387), originaire de Vicence en Italie, professeur de philosophie et de médecine à Padoue[8].
-Pietro Barbier (né à une date inconnue), apothicaire à Trévise, piazza delle Erbe, fournisseur de plusieurs monastères et de l'hôpital Santa Maria dei Battuti de 1426 à sa mort[9].
-Antonio Fasseto (né à une date inconnue), chirurgien de l'hôpital Santa Maria dei Battuti, futur hôpital civil (it) de Trévise[9].
-1465-1467 : Antonio Bernareggio (né à une date inconnue), médecin au service des ducs de Milan[10].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Gaëtan de Tiène (né en 1387), originaire de Vicence en Italie, professeur de philosophie et de médecine à Padoue.
+Pietro Barbier (né à une date inconnue), apothicaire à Trévise, piazza delle Erbe, fournisseur de plusieurs monastères et de l'hôpital Santa Maria dei Battuti de 1426 à sa mort.
+Antonio Fasseto (né à une date inconnue), chirurgien de l'hôpital Santa Maria dei Battuti, futur hôpital civil (it) de Trévise.
+1465-1467 : Antonio Bernareggio (né à une date inconnue), médecin au service des ducs de Milan.</t>
         </is>
       </c>
     </row>
